--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -11989,10 +11989,10 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>40</v>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F157" t="s" s="2">
         <v>49</v>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$143</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5022" uniqueCount="527">
   <si>
     <t>Path</t>
   </si>
@@ -811,37 +811,19 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>HFCode</t>
-  </si>
-  <si>
     <t>Organization openIMIS Code</t>
   </si>
   <si>
     <t>Health Facility Code managed by openIMIS.</t>
   </si>
   <si>
-    <t>HFUUID</t>
+    <t>UUID</t>
   </si>
   <si>
     <t>Organization openIMIS UUID</t>
   </si>
   <si>
     <t>Health Facility UUID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>HFID</t>
-  </si>
-  <si>
-    <t>Organization openIMIS Database ID</t>
-  </si>
-  <si>
-    <t>Health Facility Database ID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>DBID</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1819,7 +1801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM163"/>
+  <dimension ref="A1:AM143"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5430,7 +5412,7 @@
         <v>117</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
@@ -6789,10 +6771,10 @@
         <v>69</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
@@ -7658,7 +7640,7 @@
         <v>117</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>40</v>
@@ -9017,10 +8999,10 @@
         <v>69</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
@@ -9034,7 +9016,7 @@
         <v>40</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>40</v>
@@ -9883,11 +9865,9 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9896,34 +9876,38 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>119</v>
+        <v>262</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N73" t="s" s="2">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="Q73" t="s" s="2">
         <v>40</v>
       </c>
@@ -9967,36 +9951,36 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>129</v>
+        <v>271</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10004,7 +9988,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>49</v>
@@ -10016,19 +10000,23 @@
         <v>40</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -10052,13 +10040,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -10076,47 +10064,47 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -10128,17 +10116,15 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>40</v>
@@ -10175,31 +10161,31 @@
         <v>40</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>40</v>
@@ -10216,43 +10202,41 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -10276,49 +10260,49 @@
         <v>40</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -10329,7 +10313,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>149</v>
+        <v>284</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10340,7 +10324,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -10352,19 +10336,19 @@
         <v>50</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -10389,13 +10373,13 @@
         <v>40</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>40</v>
@@ -10413,13 +10397,13 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -10428,10 +10412,10 @@
         <v>61</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>40</v>
@@ -10442,7 +10426,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>160</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10551,7 +10535,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>161</v>
+        <v>286</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10662,7 +10646,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10673,7 +10657,7 @@
         <v>41</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>40</v>
@@ -10685,19 +10669,19 @@
         <v>50</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>40</v>
@@ -10746,13 +10730,13 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>40</v>
@@ -10761,10 +10745,10 @@
         <v>61</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
@@ -10775,7 +10759,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10795,18 +10779,20 @@
         <v>40</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M81" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>40</v>
@@ -10855,7 +10841,7 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10867,13 +10853,13 @@
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>40</v>
@@ -10884,18 +10870,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10904,21 +10890,21 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10927,7 +10913,7 @@
         <v>40</v>
       </c>
       <c r="R82" t="s" s="2">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>40</v>
@@ -10954,37 +10940,37 @@
         <v>40</v>
       </c>
       <c r="AA82" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD82" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>138</v>
+        <v>193</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
@@ -10995,7 +10981,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11018,19 +11004,17 @@
         <v>50</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>40</v>
@@ -11079,7 +11063,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11094,10 +11078,10 @@
         <v>61</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>40</v>
@@ -11108,7 +11092,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11131,18 +11115,20 @@
         <v>50</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>40</v>
       </c>
@@ -11190,7 +11176,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11205,10 +11191,10 @@
         <v>61</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>40</v>
@@ -11219,7 +11205,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>188</v>
+        <v>293</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11227,7 +11213,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>49</v>
@@ -11242,17 +11228,19 @@
         <v>50</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M85" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="N85" t="s" s="2">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>40</v>
@@ -11262,7 +11250,7 @@
         <v>40</v>
       </c>
       <c r="R85" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>40</v>
@@ -11301,7 +11289,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11316,10 +11304,10 @@
         <v>61</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>40</v>
@@ -11330,7 +11318,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11338,7 +11326,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>49</v>
@@ -11356,14 +11344,16 @@
         <v>51</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>197</v>
+        <v>295</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N86" t="s" s="2">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>40</v>
@@ -11412,7 +11402,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11421,19 +11411,19 @@
         <v>49</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>201</v>
+        <v>299</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>40</v>
@@ -11441,7 +11431,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11452,7 +11442,7 @@
         <v>41</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>40</v>
@@ -11461,22 +11451,22 @@
         <v>40</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>204</v>
+        <v>51</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>206</v>
+        <v>304</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>40</v>
@@ -11525,13 +11515,13 @@
         <v>40</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>40</v>
@@ -11540,10 +11530,10 @@
         <v>61</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>40</v>
@@ -11554,7 +11544,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11565,7 +11555,7 @@
         <v>41</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>49</v>
+        <v>308</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>40</v>
@@ -11574,22 +11564,22 @@
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>40</v>
@@ -11626,40 +11616,38 @@
         <v>40</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="AB88" s="2"/>
       <c r="AC88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>217</v>
+        <v>307</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>219</v>
+        <v>318</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>40</v>
@@ -11667,7 +11655,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11687,23 +11675,19 @@
         <v>40</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>40</v>
       </c>
@@ -11715,7 +11699,7 @@
         <v>40</v>
       </c>
       <c r="S89" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="T89" t="s" s="2">
         <v>40</v>
@@ -11751,7 +11735,7 @@
         <v>40</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -11763,16 +11747,16 @@
         <v>40</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>40</v>
@@ -11780,18 +11764,18 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>40</v>
@@ -11800,19 +11784,19 @@
         <v>40</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>233</v>
+        <v>114</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11826,7 +11810,7 @@
         <v>40</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>40</v>
@@ -11850,40 +11834,40 @@
         <v>40</v>
       </c>
       <c r="AA90" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AC90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD90" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>40</v>
@@ -11891,7 +11875,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11914,13 +11898,13 @@
         <v>50</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -11947,13 +11931,13 @@
         <v>40</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>40</v>
@@ -11971,7 +11955,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>243</v>
+        <v>327</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -11980,19 +11964,19 @@
         <v>49</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>244</v>
+        <v>329</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>40</v>
@@ -12000,7 +11984,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>247</v>
+        <v>332</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12008,7 +11992,7 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>49</v>
@@ -12023,18 +12007,20 @@
         <v>50</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>250</v>
+        <v>334</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O92" t="s" s="2">
         <v>40</v>
       </c>
@@ -12082,7 +12068,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -12097,13 +12083,13 @@
         <v>61</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>253</v>
+        <v>338</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>40</v>
@@ -12111,7 +12097,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>267</v>
+        <v>340</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12122,7 +12108,7 @@
         <v>41</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>40</v>
@@ -12134,26 +12120,24 @@
         <v>50</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>268</v>
+        <v>341</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P93" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="P93" s="2"/>
       <c r="Q93" t="s" s="2">
         <v>40</v>
       </c>
@@ -12173,13 +12157,13 @@
         <v>40</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>40</v>
@@ -12197,7 +12181,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12212,21 +12196,21 @@
         <v>61</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>276</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12234,7 +12218,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>49</v>
@@ -12249,20 +12233,18 @@
         <v>50</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>278</v>
+        <v>353</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>279</v>
+        <v>354</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>40</v>
       </c>
@@ -12286,13 +12268,13 @@
         <v>40</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>282</v>
+        <v>40</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>40</v>
@@ -12310,13 +12292,13 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>40</v>
@@ -12325,21 +12307,21 @@
         <v>61</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12359,16 +12341,16 @@
         <v>40</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>130</v>
+        <v>358</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>131</v>
+        <v>359</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12419,7 +12401,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12431,16 +12413,16 @@
         <v>40</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>40</v>
@@ -12448,18 +12430,20 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B96" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C96" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>40</v>
@@ -12471,18 +12455,20 @@
         <v>40</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>94</v>
+        <v>309</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>40</v>
       </c>
@@ -12518,19 +12504,19 @@
         <v>40</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>138</v>
+        <v>307</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>41</v>
@@ -12539,19 +12525,19 @@
         <v>42</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>40</v>
@@ -12559,7 +12545,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12570,7 +12556,7 @@
         <v>41</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>40</v>
@@ -12579,23 +12565,19 @@
         <v>40</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>40</v>
       </c>
@@ -12643,25 +12625,25 @@
         <v>40</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>40</v>
@@ -12672,18 +12654,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>40</v>
@@ -12695,15 +12677,17 @@
         <v>40</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M98" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>40</v>
@@ -12740,31 +12724,31 @@
         <v>40</v>
       </c>
       <c r="AA98" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AC98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD98" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>40</v>
@@ -12781,18 +12765,18 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>40</v>
@@ -12801,20 +12785,18 @@
         <v>40</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>40</v>
@@ -12824,7 +12806,7 @@
         <v>40</v>
       </c>
       <c r="R99" t="s" s="2">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>40</v>
@@ -12839,52 +12821,52 @@
         <v>40</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>40</v>
@@ -12892,7 +12874,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12915,19 +12897,19 @@
         <v>50</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>176</v>
+        <v>335</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>40</v>
@@ -12976,7 +12958,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>178</v>
+        <v>337</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -12991,13 +12973,13 @@
         <v>61</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>179</v>
+        <v>338</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>40</v>
@@ -13005,7 +12987,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13022,24 +13004,26 @@
         <v>40</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>183</v>
+        <v>342</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O101" t="s" s="2">
         <v>40</v>
       </c>
@@ -13063,13 +13047,13 @@
         <v>40</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>40</v>
@@ -13087,7 +13071,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>185</v>
+        <v>347</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -13102,13 +13086,13 @@
         <v>61</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>186</v>
+        <v>348</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>187</v>
+        <v>349</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>40</v>
@@ -13116,7 +13100,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13139,18 +13123,18 @@
         <v>50</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>69</v>
+        <v>352</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>189</v>
+        <v>353</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>40</v>
       </c>
@@ -13159,7 +13143,7 @@
         <v>40</v>
       </c>
       <c r="R102" t="s" s="2">
-        <v>296</v>
+        <v>40</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>40</v>
@@ -13198,7 +13182,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>193</v>
+        <v>356</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13213,10 +13197,10 @@
         <v>61</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>40</v>
@@ -13227,7 +13211,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13250,18 +13234,16 @@
         <v>50</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>198</v>
+        <v>359</v>
       </c>
       <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>40</v>
       </c>
@@ -13309,7 +13291,7 @@
         <v>40</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>41</v>
@@ -13324,13 +13306,13 @@
         <v>61</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>201</v>
+        <v>92</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>40</v>
@@ -13338,9 +13320,11 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="C104" t="s" s="2">
         <v>40</v>
       </c>
@@ -13358,22 +13342,22 @@
         <v>40</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>205</v>
+        <v>310</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>206</v>
+        <v>311</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>207</v>
+        <v>312</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>40</v>
@@ -13422,28 +13406,28 @@
         <v>40</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>40</v>
@@ -13451,7 +13435,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13471,23 +13455,19 @@
         <v>40</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>40</v>
       </c>
@@ -13535,7 +13515,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13547,13 +13527,13 @@
         <v>40</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>40</v>
@@ -13564,18 +13544,18 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>40</v>
@@ -13584,23 +13564,21 @@
         <v>40</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>301</v>
+        <v>135</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
         <v>40</v>
       </c>
@@ -13636,40 +13614,40 @@
         <v>40</v>
       </c>
       <c r="AA106" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AC106" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD106" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>300</v>
+        <v>138</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>40</v>
@@ -13677,7 +13655,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13685,10 +13663,10 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>40</v>
@@ -13697,23 +13675,19 @@
         <v>40</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>40</v>
       </c>
@@ -13722,7 +13696,7 @@
         <v>40</v>
       </c>
       <c r="R107" t="s" s="2">
-        <v>40</v>
+        <v>365</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>40</v>
@@ -13737,13 +13711,13 @@
         <v>40</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>40</v>
@@ -13761,28 +13735,28 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>40</v>
@@ -13790,7 +13764,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13801,7 +13775,7 @@
         <v>41</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>40</v>
@@ -13810,22 +13784,22 @@
         <v>40</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>40</v>
@@ -13862,38 +13836,40 @@
         <v>40</v>
       </c>
       <c r="AA108" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AB108" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>40</v>
@@ -13901,7 +13877,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13918,22 +13894,26 @@
         <v>40</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O109" t="s" s="2">
         <v>40</v>
       </c>
@@ -13957,13 +13937,13 @@
         <v>40</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>40</v>
@@ -13981,7 +13961,7 @@
         <v>40</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -13993,16 +13973,16 @@
         <v>40</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>40</v>
@@ -14010,18 +13990,18 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>40</v>
@@ -14030,19 +14010,19 @@
         <v>40</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -14080,34 +14060,34 @@
         <v>40</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>133</v>
@@ -14121,7 +14101,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14144,13 +14124,13 @@
         <v>50</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14177,13 +14157,13 @@
         <v>40</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>40</v>
@@ -14201,7 +14181,7 @@
         <v>40</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -14210,19 +14190,19 @@
         <v>49</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>335</v>
+        <v>92</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>40</v>
@@ -14230,15 +14210,17 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B112" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="C112" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>49</v>
@@ -14250,22 +14232,22 @@
         <v>40</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>40</v>
@@ -14314,28 +14296,28 @@
         <v>40</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>343</v>
+        <v>307</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>238</v>
+        <v>319</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>40</v>
@@ -14343,7 +14325,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14360,26 +14342,22 @@
         <v>40</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>347</v>
+        <v>130</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>40</v>
       </c>
@@ -14403,13 +14381,13 @@
         <v>40</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>40</v>
@@ -14427,7 +14405,7 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>353</v>
+        <v>132</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -14439,16 +14417,16 @@
         <v>40</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>40</v>
@@ -14456,18 +14434,18 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>40</v>
@@ -14476,19 +14454,19 @@
         <v>40</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14526,34 +14504,34 @@
         <v>40</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB114" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AC114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>362</v>
+        <v>138</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>133</v>
@@ -14567,7 +14545,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14575,7 +14553,7 @@
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>49</v>
@@ -14590,13 +14568,13 @@
         <v>50</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>240</v>
+        <v>69</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14608,7 +14586,7 @@
         <v>40</v>
       </c>
       <c r="R115" t="s" s="2">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="S115" t="s" s="2">
         <v>40</v>
@@ -14623,13 +14601,13 @@
         <v>40</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>40</v>
@@ -14647,7 +14625,7 @@
         <v>40</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -14656,19 +14634,19 @@
         <v>49</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>40</v>
@@ -14676,11 +14654,9 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
         <v>40</v>
       </c>
@@ -14698,22 +14674,22 @@
         <v>40</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>40</v>
@@ -14762,28 +14738,28 @@
         <v>40</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>325</v>
+        <v>238</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>40</v>
@@ -14791,7 +14767,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14808,22 +14784,26 @@
         <v>40</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O117" t="s" s="2">
         <v>40</v>
       </c>
@@ -14847,13 +14827,13 @@
         <v>40</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>40</v>
@@ -14871,7 +14851,7 @@
         <v>40</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>41</v>
@@ -14883,16 +14863,16 @@
         <v>40</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>40</v>
+        <v>350</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>40</v>
@@ -14900,18 +14880,18 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>40</v>
@@ -14920,19 +14900,19 @@
         <v>40</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>135</v>
+        <v>353</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
@@ -14970,34 +14950,34 @@
         <v>40</v>
       </c>
       <c r="AA118" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD118" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>138</v>
+        <v>356</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>133</v>
@@ -15011,7 +14991,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15019,7 +14999,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>49</v>
@@ -15034,13 +15014,13 @@
         <v>50</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -15052,7 +15032,7 @@
         <v>40</v>
       </c>
       <c r="R119" t="s" s="2">
-        <v>368</v>
+        <v>40</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>40</v>
@@ -15067,13 +15047,13 @@
         <v>40</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>40</v>
@@ -15091,7 +15071,7 @@
         <v>40</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -15100,27 +15080,27 @@
         <v>49</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>335</v>
+        <v>92</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>337</v>
+        <v>246</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15128,34 +15108,34 @@
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F120" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>40</v>
@@ -15204,28 +15184,28 @@
         <v>40</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>40</v>
+        <v>377</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>61</v>
+        <v>378</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>238</v>
+        <v>381</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>40</v>
@@ -15233,7 +15213,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15250,26 +15230,22 @@
         <v>40</v>
       </c>
       <c r="H121" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>347</v>
+        <v>130</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>40</v>
       </c>
@@ -15293,13 +15269,13 @@
         <v>40</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>40</v>
@@ -15317,7 +15293,7 @@
         <v>40</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>353</v>
+        <v>132</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -15329,16 +15305,16 @@
         <v>40</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>40</v>
@@ -15346,7 +15322,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15354,10 +15330,10 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>40</v>
@@ -15366,20 +15342,18 @@
         <v>40</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>359</v>
+        <v>95</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
         <v>40</v>
@@ -15416,37 +15390,37 @@
         <v>40</v>
       </c>
       <c r="AA122" t="s" s="2">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="AB122" t="s" s="2">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="AC122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD122" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>362</v>
+        <v>138</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>40</v>
@@ -15455,38 +15429,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B123" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="C123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F123" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>240</v>
+        <v>385</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -15537,28 +15513,28 @@
         <v>40</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>366</v>
+        <v>138</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>367</v>
+        <v>40</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>40</v>
@@ -15566,11 +15542,9 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
         <v>40</v>
       </c>
@@ -15585,25 +15559,25 @@
         <v>40</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>316</v>
+        <v>389</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>317</v>
+        <v>390</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>318</v>
+        <v>391</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>40</v>
@@ -15616,7 +15590,7 @@
         <v>40</v>
       </c>
       <c r="S124" t="s" s="2">
-        <v>40</v>
+        <v>393</v>
       </c>
       <c r="T124" t="s" s="2">
         <v>40</v>
@@ -15628,13 +15602,13 @@
         <v>40</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>40</v>
+        <v>394</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>40</v>
+        <v>395</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>40</v>
@@ -15652,28 +15626,28 @@
         <v>40</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>313</v>
+        <v>396</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>323</v>
+        <v>397</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>40</v>
@@ -15681,7 +15655,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15701,18 +15675,20 @@
         <v>40</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M125" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>40</v>
@@ -15722,10 +15698,10 @@
         <v>40</v>
       </c>
       <c r="R125" t="s" s="2">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="S125" t="s" s="2">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="T125" t="s" s="2">
         <v>40</v>
@@ -15737,13 +15713,13 @@
         <v>40</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>40</v>
+        <v>405</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>40</v>
+        <v>406</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>40</v>
@@ -15761,7 +15737,7 @@
         <v>40</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -15773,13 +15749,13 @@
         <v>40</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>40</v>
+        <v>408</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>40</v>
@@ -15790,18 +15766,18 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>40</v>
@@ -15810,21 +15786,23 @@
         <v>40</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>135</v>
+        <v>410</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>136</v>
+        <v>411</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O126" t="s" s="2">
         <v>40</v>
       </c>
@@ -15836,7 +15814,7 @@
         <v>40</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>40</v>
+        <v>414</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>40</v>
@@ -15860,37 +15838,37 @@
         <v>40</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD126" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>138</v>
+        <v>415</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>40</v>
+        <v>416</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>40</v>
@@ -15901,7 +15879,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>328</v>
+        <v>418</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15909,7 +15887,7 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s" s="2">
         <v>49</v>
@@ -15924,13 +15902,13 @@
         <v>50</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
@@ -15942,10 +15920,10 @@
         <v>40</v>
       </c>
       <c r="R127" t="s" s="2">
-        <v>371</v>
+        <v>40</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>40</v>
+        <v>421</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>40</v>
@@ -15957,13 +15935,13 @@
         <v>40</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>40</v>
@@ -15981,28 +15959,28 @@
         <v>40</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>337</v>
+        <v>425</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>40</v>
@@ -16010,18 +15988,18 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>40</v>
+        <v>427</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F128" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G128" t="s" s="2">
         <v>40</v>
@@ -16036,17 +16014,13 @@
         <v>51</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>339</v>
+        <v>428</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
         <v>40</v>
       </c>
@@ -16058,7 +16032,7 @@
         <v>40</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>40</v>
@@ -16094,7 +16068,7 @@
         <v>40</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>343</v>
+        <v>431</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -16109,57 +16083,55 @@
         <v>61</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>344</v>
+        <v>432</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>238</v>
+        <v>434</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
-        <v>346</v>
+        <v>435</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I129" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>347</v>
+        <v>437</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>348</v>
+        <v>438</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
         <v>40</v>
       </c>
@@ -16171,7 +16143,7 @@
         <v>40</v>
       </c>
       <c r="S129" t="s" s="2">
-        <v>40</v>
+        <v>440</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>40</v>
@@ -16183,13 +16155,13 @@
         <v>40</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>40</v>
@@ -16207,7 +16179,7 @@
         <v>40</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>353</v>
+        <v>441</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -16222,35 +16194,35 @@
         <v>61</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>354</v>
+        <v>442</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>355</v>
+        <v>443</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
-        <v>357</v>
+        <v>444</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F130" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>40</v>
@@ -16259,17 +16231,15 @@
         <v>50</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>358</v>
+        <v>51</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
         <v>40</v>
@@ -16318,7 +16288,7 @@
         <v>40</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -16333,13 +16303,13 @@
         <v>61</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>40</v>
+        <v>451</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>40</v>
@@ -16347,18 +16317,18 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>363</v>
+        <v>452</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
-        <v>40</v>
+        <v>453</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>40</v>
@@ -16370,13 +16340,13 @@
         <v>50</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>240</v>
+        <v>51</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>364</v>
+        <v>454</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -16391,7 +16361,7 @@
         <v>40</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>40</v>
+        <v>456</v>
       </c>
       <c r="T131" t="s" s="2">
         <v>40</v>
@@ -16427,7 +16397,7 @@
         <v>40</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>366</v>
+        <v>457</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -16442,13 +16412,13 @@
         <v>61</v>
       </c>
       <c r="AJ131" t="s" s="2">
-        <v>92</v>
+        <v>458</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>367</v>
+        <v>459</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>246</v>
+        <v>460</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>40</v>
@@ -16456,11 +16426,9 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
         <v>40</v>
       </c>
@@ -16469,7 +16437,7 @@
         <v>41</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>40</v>
@@ -16478,23 +16446,21 @@
         <v>40</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>316</v>
+        <v>462</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>317</v>
+        <v>463</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
         <v>40</v>
       </c>
@@ -16542,28 +16508,28 @@
         <v>40</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>313</v>
+        <v>465</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>322</v>
+        <v>61</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>324</v>
+        <v>467</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>325</v>
+        <v>468</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>40</v>
@@ -16571,7 +16537,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>326</v>
+        <v>469</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -16591,19 +16557,21 @@
         <v>40</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>130</v>
+        <v>470</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>131</v>
+        <v>471</v>
       </c>
       <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
+      <c r="N133" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O133" t="s" s="2">
         <v>40</v>
       </c>
@@ -16615,7 +16583,7 @@
         <v>40</v>
       </c>
       <c r="S133" t="s" s="2">
-        <v>40</v>
+        <v>473</v>
       </c>
       <c r="T133" t="s" s="2">
         <v>40</v>
@@ -16651,7 +16619,7 @@
         <v>40</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -16663,16 +16631,16 @@
         <v>40</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>133</v>
+        <v>361</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>40</v>
+        <v>246</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>40</v>
@@ -16680,18 +16648,18 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>327</v>
+        <v>476</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F134" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s" s="2">
         <v>40</v>
@@ -16700,21 +16668,21 @@
         <v>40</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>135</v>
+        <v>477</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>40</v>
       </c>
@@ -16750,40 +16718,40 @@
         <v>40</v>
       </c>
       <c r="AA134" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC134" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>138</v>
+        <v>476</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AK134" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AL134" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>40</v>
@@ -16791,7 +16759,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>328</v>
+        <v>481</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16799,10 +16767,10 @@
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>40</v>
@@ -16811,19 +16779,23 @@
         <v>40</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>69</v>
+        <v>482</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>375</v>
+        <v>483</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="O135" t="s" s="2">
         <v>40</v>
       </c>
@@ -16832,7 +16804,7 @@
         <v>40</v>
       </c>
       <c r="R135" t="s" s="2">
-        <v>374</v>
+        <v>40</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>40</v>
@@ -16847,13 +16819,13 @@
         <v>40</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>332</v>
+        <v>40</v>
       </c>
       <c r="Z135" t="s" s="2">
         <v>40</v>
@@ -16871,28 +16843,28 @@
         <v>40</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>334</v>
+        <v>40</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>336</v>
+        <v>487</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>337</v>
+        <v>40</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>40</v>
@@ -16900,7 +16872,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>338</v>
+        <v>488</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16920,23 +16892,19 @@
         <v>40</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J136" t="s" s="2">
         <v>51</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>40</v>
       </c>
@@ -16984,7 +16952,7 @@
         <v>40</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>343</v>
+        <v>132</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -16996,16 +16964,16 @@
         <v>40</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>40</v>
@@ -17013,43 +16981,41 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>346</v>
+        <v>489</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>347</v>
+        <v>135</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>348</v>
+        <v>136</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
         <v>40</v>
       </c>
@@ -17073,13 +17039,13 @@
         <v>40</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="X137" t="s" s="2">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>352</v>
+        <v>40</v>
       </c>
       <c r="Z137" t="s" s="2">
         <v>40</v>
@@ -17097,28 +17063,28 @@
         <v>40</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>353</v>
+        <v>138</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>355</v>
+        <v>133</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>40</v>
@@ -17126,41 +17092,43 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>357</v>
+        <v>490</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H138" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I138" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>358</v>
+        <v>94</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>359</v>
+        <v>492</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>360</v>
+        <v>493</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>40</v>
       </c>
@@ -17208,25 +17176,25 @@
         <v>40</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>362</v>
+        <v>494</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>40</v>
@@ -17237,7 +17205,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>363</v>
+        <v>495</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -17245,7 +17213,7 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s" s="2">
         <v>49</v>
@@ -17257,19 +17225,21 @@
         <v>40</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>364</v>
+        <v>496</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>365</v>
+        <v>497</v>
       </c>
       <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
+      <c r="N139" t="s" s="2">
+        <v>498</v>
+      </c>
       <c r="O139" t="s" s="2">
         <v>40</v>
       </c>
@@ -17278,7 +17248,7 @@
         <v>40</v>
       </c>
       <c r="R139" t="s" s="2">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>40</v>
@@ -17293,13 +17263,13 @@
         <v>40</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>40</v>
+        <v>501</v>
       </c>
       <c r="Z139" t="s" s="2">
         <v>40</v>
@@ -17317,7 +17287,7 @@
         <v>40</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>366</v>
+        <v>495</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -17332,21 +17302,21 @@
         <v>61</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>367</v>
+        <v>502</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -17360,7 +17330,7 @@
         <v>49</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>40</v>
@@ -17369,19 +17339,17 @@
         <v>40</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>382</v>
+        <v>507</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>40</v>
@@ -17430,28 +17398,28 @@
         <v>40</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>377</v>
+        <v>503</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>383</v>
+        <v>40</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>384</v>
+        <v>61</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>385</v>
+        <v>508</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>386</v>
+        <v>509</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>40</v>
@@ -17459,7 +17427,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>388</v>
+        <v>510</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -17470,7 +17438,7 @@
         <v>41</v>
       </c>
       <c r="F141" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>40</v>
@@ -17482,16 +17450,18 @@
         <v>40</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>51</v>
+        <v>309</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>130</v>
+        <v>511</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+      <c r="N141" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>40</v>
       </c>
@@ -17539,25 +17509,25 @@
         <v>40</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>132</v>
+        <v>510</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>40</v>
+        <v>514</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>133</v>
+        <v>515</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>40</v>
@@ -17568,7 +17538,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>389</v>
+        <v>516</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17576,10 +17546,10 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>40</v>
@@ -17591,16 +17561,18 @@
         <v>40</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>94</v>
+        <v>372</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>95</v>
+        <v>517</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>96</v>
+        <v>518</v>
       </c>
       <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
+      <c r="N142" t="s" s="2">
+        <v>519</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>40</v>
       </c>
@@ -17636,37 +17608,37 @@
         <v>40</v>
       </c>
       <c r="AA142" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>137</v>
+        <v>40</v>
       </c>
       <c r="AC142" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD142" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>138</v>
+        <v>516</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>40</v>
+        <v>521</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>40</v>
@@ -17675,25 +17647,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B143" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>40</v>
@@ -17702,16 +17672,18 @@
         <v>40</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>391</v>
+        <v>523</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>392</v>
+        <v>524</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>393</v>
+        <v>525</v>
       </c>
       <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
+      <c r="N143" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="O143" t="s" s="2">
         <v>40</v>
       </c>
@@ -17759,7 +17731,7 @@
         <v>40</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>138</v>
+        <v>522</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>41</v>
@@ -17771,2241 +17743,23 @@
         <v>40</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="151" hidden="true">
-      <c r="A151" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="D151" s="2"/>
-      <c r="E151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J151" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K151" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L151" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P151" s="2"/>
-      <c r="Q151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S151" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="T151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE151" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF151" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG151" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH151" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI151" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ151" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AK151" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL151" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AM151" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="152" hidden="true">
-      <c r="A152" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D152" s="2"/>
-      <c r="E152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I152" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J152" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K152" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="L152" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M152" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N152" s="2"/>
-      <c r="O152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P152" s="2"/>
-      <c r="Q152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE152" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AF152" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG152" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH152" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI152" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ152" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AK152" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL152" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM152" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="153" hidden="true">
-      <c r="A153" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D153" s="2"/>
-      <c r="E153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F153" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J153" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K153" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="L153" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M153" s="2"/>
-      <c r="N153" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P153" s="2"/>
-      <c r="Q153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S153" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="T153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG153" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH153" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI153" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ153" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AK153" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AL153" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="154" hidden="true">
-      <c r="A154" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D154" s="2"/>
-      <c r="E154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I154" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J154" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M154" s="2"/>
-      <c r="N154" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P154" s="2"/>
-      <c r="Q154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG154" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH154" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI154" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ154" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AK154" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AL154" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM154" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="155" hidden="true">
-      <c r="A155" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B155" s="2"/>
-      <c r="C155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F155" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J155" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="K155" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P155" s="2"/>
-      <c r="Q155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE155" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF155" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG155" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI155" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK155" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AL155" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM155" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="156" hidden="true">
-      <c r="A156" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B156" s="2"/>
-      <c r="C156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D156" s="2"/>
-      <c r="E156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F156" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J156" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="K156" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P156" s="2"/>
-      <c r="Q156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE156" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF156" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG156" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="157" hidden="true">
-      <c r="A157" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B157" s="2"/>
-      <c r="C157" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="D157" s="2"/>
-      <c r="E157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F157" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J157" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K157" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L157" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M157" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N157" s="2"/>
-      <c r="O157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P157" s="2"/>
-      <c r="Q157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG157" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI157" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK157" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL157" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="158" hidden="true">
-      <c r="A158" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B158" s="2"/>
-      <c r="C158" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="D158" s="2"/>
-      <c r="E158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F158" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H158" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="I158" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J158" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L158" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P158" s="2"/>
-      <c r="Q158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE158" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF158" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG158" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI158" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK158" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AL158" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM158" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="159" hidden="true">
-      <c r="A159" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B159" s="2"/>
-      <c r="C159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D159" s="2"/>
-      <c r="E159" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F159" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K159" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M159" s="2"/>
-      <c r="N159" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P159" s="2"/>
-      <c r="Q159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R159" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="S159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W159" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X159" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="Y159" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Z159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE159" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF159" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG159" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI159" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK159" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AL159" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM159" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" hidden="true">
-      <c r="A160" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B160" s="2"/>
-      <c r="C160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="F160" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J160" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M160" s="2"/>
-      <c r="N160" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P160" s="2"/>
-      <c r="Q160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ160" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AK160" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AL160" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM160" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="161" hidden="true">
-      <c r="A161" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B161" s="2"/>
-      <c r="C161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F161" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J161" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="K161" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="L161" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M161" s="2"/>
-      <c r="N161" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P161" s="2"/>
-      <c r="Q161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF161" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG161" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI161" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ161" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AK161" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL161" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="162" hidden="true">
-      <c r="A162" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J162" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="K162" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L162" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M162" s="2"/>
-      <c r="N162" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P162" s="2"/>
-      <c r="Q162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE162" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF162" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG162" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI162" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ162" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AK162" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL162" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM162" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="163" hidden="true">
-      <c r="A163" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B163" s="2"/>
-      <c r="C163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D163" s="2"/>
-      <c r="E163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F163" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J163" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="K163" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M163" s="2"/>
-      <c r="N163" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P163" s="2"/>
-      <c r="Q163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE163" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AF163" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG163" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI163" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AJ163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK163" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL163" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM163" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM163">
+  <autoFilter ref="A1:AM143">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20015,7 +17769,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI162">
+  <conditionalFormatting sqref="A2:AI142">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>legalForm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/organization-legal-form}
+    <t xml:space="preserve">Extension {https://openimis.github.io/openimis_fhir_r4_ig/StructureDefinition/organization-hf-legal-form}
 </t>
   </si>
   <si>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-health-facility-organization.xlsx
+++ b/StructureDefinition-openimis-health-facility-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
